--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10101P_Client_Search_Response_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10101P_Client_Search_Response_Message_(JSON).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FF8217-AD7C-48DF-A7A1-F829C4E489A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D920FD-94C2-4EC7-AC08-EDE6A79A5EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -35,7 +35,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2060,6 +2065,150 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2096,149 +2245,41 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2249,51 +2290,90 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2306,15 +2386,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2342,71 +2413,218 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2435,15 +2653,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2456,211 +2665,16 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2673,20 +2687,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2701,30 +2730,6 @@
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6570,155 +6575,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="204" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="198" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="195" t="s">
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="243" t="s">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="204" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="192" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="242"/>
+      <c r="AC1" s="192" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="195">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="197"/>
       <c r="AK1" s="28"/>
       <c r="AL1" s="28"/>
       <c r="AM1" s="28"/>
       <c r="AN1" s="174"/>
     </row>
     <row r="2" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="240" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="204" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="192" t="s">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="240" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="240" t="str">
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="201" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="241"/>
-      <c r="AF2" s="242"/>
-      <c r="AG2" s="237">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="195">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="197"/>
       <c r="AK2" s="28"/>
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
       <c r="AN2" s="28"/>
     </row>
     <row r="3" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="240" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="204" t="s">
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="237"/>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="242"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="196"/>
+      <c r="AI3" s="197"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
       <c r="AM3" s="28"/>
@@ -6765,98 +6770,98 @@
       <c r="A7" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="218" t="s">
+      <c r="C7" s="239"/>
+      <c r="D7" s="213" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="219"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="218" t="s">
+      <c r="E7" s="214"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="219"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="218" t="s">
+      <c r="H7" s="214"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="213" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="219"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="219"/>
-      <c r="N7" s="219"/>
-      <c r="O7" s="219"/>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="218" t="s">
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="213" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="219"/>
-      <c r="S7" s="219"/>
-      <c r="T7" s="219"/>
-      <c r="U7" s="219"/>
-      <c r="V7" s="219"/>
-      <c r="W7" s="219"/>
-      <c r="X7" s="219"/>
-      <c r="Y7" s="219"/>
-      <c r="Z7" s="219"/>
-      <c r="AA7" s="219"/>
-      <c r="AB7" s="219"/>
-      <c r="AC7" s="219"/>
-      <c r="AD7" s="219"/>
-      <c r="AE7" s="220"/>
-      <c r="AF7" s="218" t="s">
+      <c r="R7" s="214"/>
+      <c r="S7" s="214"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="214"/>
+      <c r="W7" s="214"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="214"/>
+      <c r="Z7" s="214"/>
+      <c r="AA7" s="214"/>
+      <c r="AB7" s="214"/>
+      <c r="AC7" s="214"/>
+      <c r="AD7" s="214"/>
+      <c r="AE7" s="215"/>
+      <c r="AF7" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="AG7" s="219"/>
-      <c r="AH7" s="219"/>
-      <c r="AI7" s="220"/>
+      <c r="AG7" s="214"/>
+      <c r="AH7" s="214"/>
+      <c r="AI7" s="215"/>
       <c r="AJ7" s="176"/>
     </row>
     <row r="8" spans="1:40" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="177">
         <v>1</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="227" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="223">
+      <c r="C8" s="228"/>
+      <c r="D8" s="229">
         <v>43718</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="226" t="s">
+      <c r="E8" s="230"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="232" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="227"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="229" t="s">
+      <c r="H8" s="233"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="230"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="229" t="s">
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="236"/>
+      <c r="O8" s="236"/>
+      <c r="P8" s="237"/>
+      <c r="Q8" s="235" t="s">
         <v>105</v>
       </c>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="230"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="230"/>
-      <c r="W8" s="230"/>
-      <c r="X8" s="230"/>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
-      <c r="AD8" s="230"/>
-      <c r="AE8" s="231"/>
+      <c r="R8" s="236"/>
+      <c r="S8" s="236"/>
+      <c r="T8" s="236"/>
+      <c r="U8" s="236"/>
+      <c r="V8" s="236"/>
+      <c r="W8" s="236"/>
+      <c r="X8" s="236"/>
+      <c r="Y8" s="236"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="236"/>
+      <c r="AB8" s="236"/>
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="236"/>
+      <c r="AE8" s="237"/>
       <c r="AF8" s="178" t="s">
         <v>2</v>
       </c>
@@ -6869,46 +6874,46 @@
       <c r="A9" s="30">
         <v>2</v>
       </c>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209">
+      <c r="C9" s="217"/>
+      <c r="D9" s="218">
         <v>44833</v>
       </c>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="212" t="s">
+      <c r="E9" s="219"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="213"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="215" t="s">
+      <c r="H9" s="222"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="224" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="216"/>
-      <c r="L9" s="216"/>
-      <c r="M9" s="216"/>
-      <c r="N9" s="216"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="215" t="s">
+      <c r="K9" s="225"/>
+      <c r="L9" s="225"/>
+      <c r="M9" s="225"/>
+      <c r="N9" s="225"/>
+      <c r="O9" s="225"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="216"/>
-      <c r="S9" s="216"/>
-      <c r="T9" s="216"/>
-      <c r="U9" s="216"/>
-      <c r="V9" s="216"/>
-      <c r="W9" s="216"/>
-      <c r="X9" s="216"/>
-      <c r="Y9" s="216"/>
-      <c r="Z9" s="216"/>
-      <c r="AA9" s="216"/>
-      <c r="AB9" s="216"/>
-      <c r="AC9" s="216"/>
-      <c r="AD9" s="216"/>
-      <c r="AE9" s="217"/>
+      <c r="R9" s="225"/>
+      <c r="S9" s="225"/>
+      <c r="T9" s="225"/>
+      <c r="U9" s="225"/>
+      <c r="V9" s="225"/>
+      <c r="W9" s="225"/>
+      <c r="X9" s="225"/>
+      <c r="Y9" s="225"/>
+      <c r="Z9" s="225"/>
+      <c r="AA9" s="225"/>
+      <c r="AB9" s="225"/>
+      <c r="AC9" s="225"/>
+      <c r="AD9" s="225"/>
+      <c r="AE9" s="226"/>
       <c r="AF9" s="32" t="s">
         <v>113</v>
       </c>
@@ -6919,36 +6924,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="216"/>
-      <c r="M10" s="216"/>
-      <c r="N10" s="216"/>
-      <c r="O10" s="216"/>
-      <c r="P10" s="217"/>
-      <c r="Q10" s="215"/>
-      <c r="R10" s="216"/>
-      <c r="S10" s="216"/>
-      <c r="T10" s="216"/>
-      <c r="U10" s="216"/>
-      <c r="V10" s="216"/>
-      <c r="W10" s="216"/>
-      <c r="X10" s="216"/>
-      <c r="Y10" s="216"/>
-      <c r="Z10" s="216"/>
-      <c r="AA10" s="216"/>
-      <c r="AB10" s="216"/>
-      <c r="AC10" s="216"/>
-      <c r="AD10" s="216"/>
-      <c r="AE10" s="217"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="225"/>
+      <c r="P10" s="226"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="225"/>
+      <c r="S10" s="225"/>
+      <c r="T10" s="225"/>
+      <c r="U10" s="225"/>
+      <c r="V10" s="225"/>
+      <c r="W10" s="225"/>
+      <c r="X10" s="225"/>
+      <c r="Y10" s="225"/>
+      <c r="Z10" s="225"/>
+      <c r="AA10" s="225"/>
+      <c r="AB10" s="225"/>
+      <c r="AC10" s="225"/>
+      <c r="AD10" s="225"/>
+      <c r="AE10" s="226"/>
       <c r="AF10" s="32"/>
       <c r="AG10" s="34"/>
       <c r="AH10" s="34"/>
@@ -6956,36 +6961,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="207"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="216"/>
-      <c r="M11" s="216"/>
-      <c r="N11" s="216"/>
-      <c r="O11" s="216"/>
-      <c r="P11" s="217"/>
-      <c r="Q11" s="215"/>
-      <c r="R11" s="216"/>
-      <c r="S11" s="216"/>
-      <c r="T11" s="216"/>
-      <c r="U11" s="216"/>
-      <c r="V11" s="216"/>
-      <c r="W11" s="216"/>
-      <c r="X11" s="216"/>
-      <c r="Y11" s="216"/>
-      <c r="Z11" s="216"/>
-      <c r="AA11" s="216"/>
-      <c r="AB11" s="216"/>
-      <c r="AC11" s="216"/>
-      <c r="AD11" s="216"/>
-      <c r="AE11" s="217"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="226"/>
+      <c r="Q11" s="224"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="225"/>
+      <c r="T11" s="225"/>
+      <c r="U11" s="225"/>
+      <c r="V11" s="225"/>
+      <c r="W11" s="225"/>
+      <c r="X11" s="225"/>
+      <c r="Y11" s="225"/>
+      <c r="Z11" s="225"/>
+      <c r="AA11" s="225"/>
+      <c r="AB11" s="225"/>
+      <c r="AC11" s="225"/>
+      <c r="AD11" s="225"/>
+      <c r="AE11" s="226"/>
       <c r="AF11" s="32"/>
       <c r="AG11" s="34"/>
       <c r="AH11" s="34"/>
@@ -6993,36 +6998,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="207"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="214"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="216"/>
-      <c r="M12" s="216"/>
-      <c r="N12" s="216"/>
-      <c r="O12" s="216"/>
-      <c r="P12" s="217"/>
-      <c r="Q12" s="215"/>
-      <c r="R12" s="216"/>
-      <c r="S12" s="216"/>
-      <c r="T12" s="216"/>
-      <c r="U12" s="216"/>
-      <c r="V12" s="216"/>
-      <c r="W12" s="216"/>
-      <c r="X12" s="216"/>
-      <c r="Y12" s="216"/>
-      <c r="Z12" s="216"/>
-      <c r="AA12" s="216"/>
-      <c r="AB12" s="216"/>
-      <c r="AC12" s="216"/>
-      <c r="AD12" s="216"/>
-      <c r="AE12" s="217"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="225"/>
+      <c r="O12" s="225"/>
+      <c r="P12" s="226"/>
+      <c r="Q12" s="224"/>
+      <c r="R12" s="225"/>
+      <c r="S12" s="225"/>
+      <c r="T12" s="225"/>
+      <c r="U12" s="225"/>
+      <c r="V12" s="225"/>
+      <c r="W12" s="225"/>
+      <c r="X12" s="225"/>
+      <c r="Y12" s="225"/>
+      <c r="Z12" s="225"/>
+      <c r="AA12" s="225"/>
+      <c r="AB12" s="225"/>
+      <c r="AC12" s="225"/>
+      <c r="AD12" s="225"/>
+      <c r="AE12" s="226"/>
       <c r="AF12" s="32"/>
       <c r="AG12" s="34"/>
       <c r="AH12" s="34"/>
@@ -7030,36 +7035,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="216"/>
-      <c r="M13" s="216"/>
-      <c r="N13" s="216"/>
-      <c r="O13" s="216"/>
-      <c r="P13" s="217"/>
-      <c r="Q13" s="215"/>
-      <c r="R13" s="216"/>
-      <c r="S13" s="216"/>
-      <c r="T13" s="216"/>
-      <c r="U13" s="216"/>
-      <c r="V13" s="216"/>
-      <c r="W13" s="216"/>
-      <c r="X13" s="216"/>
-      <c r="Y13" s="216"/>
-      <c r="Z13" s="216"/>
-      <c r="AA13" s="216"/>
-      <c r="AB13" s="216"/>
-      <c r="AC13" s="216"/>
-      <c r="AD13" s="216"/>
-      <c r="AE13" s="217"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="225"/>
+      <c r="P13" s="226"/>
+      <c r="Q13" s="224"/>
+      <c r="R13" s="225"/>
+      <c r="S13" s="225"/>
+      <c r="T13" s="225"/>
+      <c r="U13" s="225"/>
+      <c r="V13" s="225"/>
+      <c r="W13" s="225"/>
+      <c r="X13" s="225"/>
+      <c r="Y13" s="225"/>
+      <c r="Z13" s="225"/>
+      <c r="AA13" s="225"/>
+      <c r="AB13" s="225"/>
+      <c r="AC13" s="225"/>
+      <c r="AD13" s="225"/>
+      <c r="AE13" s="226"/>
       <c r="AF13" s="32"/>
       <c r="AG13" s="34"/>
       <c r="AH13" s="34"/>
@@ -7807,14 +7812,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -7831,35 +7857,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8015,163 +8020,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="67" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="255" t="str">
+      <c r="A1" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="204" t="str">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="258" t="str">
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="255" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design(JSON)</v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="255" t="str">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="256"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="252">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="254"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:35" s="67" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="255" t="str">
+      <c r="A2" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="204" t="str">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="255" t="str">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="256"/>
-      <c r="AC2" s="234" t="str">
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="236"/>
-      <c r="AG2" s="252">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="264">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="254"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:35" s="67" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="255" t="str">
+      <c r="A3" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="204" t="str">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="234" t="str">
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="252" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="254"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:35" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
@@ -9421,6 +9426,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9431,13 +9443,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9463,163 +9468,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="255" t="str">
+      <c r="A1" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="204" t="str">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="258" t="str">
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="255" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design(JSON)</v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="255" t="str">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="256"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="252">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="254"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="255" t="str">
+      <c r="A2" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="204" t="str">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="255" t="str">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="256"/>
-      <c r="AC2" s="234" t="str">
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="236"/>
-      <c r="AG2" s="252">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="264">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="254"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="255" t="str">
+      <c r="A3" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="204" t="str">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="234" t="str">
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="252" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="254"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="84"/>
@@ -9639,12 +9644,12 @@
       <c r="A6" s="76"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="276"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="277"/>
       <c r="E7" s="105"/>
       <c r="F7" s="105"/>
       <c r="G7" s="105"/>
@@ -9657,82 +9662,82 @@
       <c r="N7" s="105"/>
       <c r="O7" s="105"/>
       <c r="P7" s="105"/>
-      <c r="Q7" s="307" t="s">
+      <c r="Q7" s="281" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="296"/>
-      <c r="S7" s="296"/>
-      <c r="T7" s="297"/>
-      <c r="U7" s="301" t="s">
+      <c r="R7" s="282"/>
+      <c r="S7" s="282"/>
+      <c r="T7" s="283"/>
+      <c r="U7" s="270" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="302"/>
-      <c r="W7" s="302"/>
-      <c r="X7" s="302"/>
-      <c r="Y7" s="302"/>
-      <c r="Z7" s="302"/>
-      <c r="AA7" s="302"/>
-      <c r="AB7" s="302"/>
-      <c r="AC7" s="302"/>
-      <c r="AD7" s="302"/>
-      <c r="AE7" s="302"/>
-      <c r="AF7" s="302"/>
-      <c r="AG7" s="302"/>
-      <c r="AH7" s="302"/>
-      <c r="AI7" s="303"/>
+      <c r="V7" s="271"/>
+      <c r="W7" s="271"/>
+      <c r="X7" s="271"/>
+      <c r="Y7" s="271"/>
+      <c r="Z7" s="271"/>
+      <c r="AA7" s="271"/>
+      <c r="AB7" s="271"/>
+      <c r="AC7" s="271"/>
+      <c r="AD7" s="271"/>
+      <c r="AE7" s="271"/>
+      <c r="AF7" s="271"/>
+      <c r="AG7" s="271"/>
+      <c r="AH7" s="271"/>
+      <c r="AI7" s="272"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="304" t="s">
+      <c r="A8" s="278" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="305"/>
-      <c r="C8" s="305"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="286" t="s">
+      <c r="B8" s="279"/>
+      <c r="C8" s="279"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="273" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="287"/>
-      <c r="I8" s="287"/>
-      <c r="J8" s="287"/>
-      <c r="K8" s="287"/>
-      <c r="L8" s="287"/>
-      <c r="M8" s="287"/>
-      <c r="N8" s="287"/>
-      <c r="O8" s="287"/>
-      <c r="P8" s="287"/>
-      <c r="Q8" s="274" t="s">
+      <c r="F8" s="274"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="274"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="274"/>
+      <c r="L8" s="274"/>
+      <c r="M8" s="274"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="274"/>
+      <c r="P8" s="274"/>
+      <c r="Q8" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
-      <c r="T8" s="276"/>
-      <c r="U8" s="286" t="s">
+      <c r="R8" s="276"/>
+      <c r="S8" s="276"/>
+      <c r="T8" s="277"/>
+      <c r="U8" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="287"/>
-      <c r="W8" s="287"/>
-      <c r="X8" s="287"/>
-      <c r="Y8" s="287"/>
-      <c r="Z8" s="287"/>
-      <c r="AA8" s="287"/>
-      <c r="AB8" s="287"/>
-      <c r="AC8" s="287"/>
-      <c r="AD8" s="287"/>
-      <c r="AE8" s="287"/>
-      <c r="AF8" s="287"/>
-      <c r="AG8" s="287"/>
-      <c r="AH8" s="287"/>
-      <c r="AI8" s="288"/>
+      <c r="V8" s="274"/>
+      <c r="W8" s="274"/>
+      <c r="X8" s="274"/>
+      <c r="Y8" s="274"/>
+      <c r="Z8" s="274"/>
+      <c r="AA8" s="274"/>
+      <c r="AB8" s="274"/>
+      <c r="AC8" s="274"/>
+      <c r="AD8" s="274"/>
+      <c r="AE8" s="274"/>
+      <c r="AF8" s="274"/>
+      <c r="AG8" s="274"/>
+      <c r="AH8" s="274"/>
+      <c r="AI8" s="275"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="275"/>
-      <c r="C9" s="275"/>
-      <c r="D9" s="276"/>
+      <c r="B9" s="276"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="277"/>
       <c r="E9" s="106"/>
       <c r="F9" s="106"/>
       <c r="G9" s="106"/>
@@ -9862,7 +9867,7 @@
       <c r="AI13" s="116"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="274" t="s">
+      <c r="A14" s="267" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="268"/>
@@ -9946,12 +9951,12 @@
       <c r="AI17" s="116"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="289" t="s">
+      <c r="A18" s="284" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="290"/>
-      <c r="C18" s="290"/>
-      <c r="D18" s="291"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="118"/>
       <c r="F18" s="119"/>
       <c r="G18" s="94"/>
@@ -9964,12 +9969,12 @@
       <c r="N18" s="94"/>
       <c r="O18" s="92"/>
       <c r="P18" s="94"/>
-      <c r="Q18" s="289" t="s">
+      <c r="Q18" s="284" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="290"/>
-      <c r="S18" s="290"/>
-      <c r="T18" s="291"/>
+      <c r="R18" s="285"/>
+      <c r="S18" s="285"/>
+      <c r="T18" s="286"/>
       <c r="U18" s="109"/>
       <c r="V18" s="109"/>
       <c r="W18" s="109"/>
@@ -10047,55 +10052,55 @@
       <c r="AI20" s="110"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="274" t="s">
+      <c r="A21" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="275"/>
-      <c r="C21" s="275"/>
-      <c r="D21" s="276"/>
-      <c r="E21" s="286" t="s">
+      <c r="B21" s="276"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="277"/>
+      <c r="E21" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="287"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="287"/>
-      <c r="M21" s="287"/>
-      <c r="N21" s="287"/>
-      <c r="O21" s="287"/>
-      <c r="P21" s="288"/>
-      <c r="Q21" s="274" t="s">
+      <c r="F21" s="274"/>
+      <c r="G21" s="274"/>
+      <c r="H21" s="274"/>
+      <c r="I21" s="274"/>
+      <c r="J21" s="274"/>
+      <c r="K21" s="274"/>
+      <c r="L21" s="274"/>
+      <c r="M21" s="274"/>
+      <c r="N21" s="274"/>
+      <c r="O21" s="274"/>
+      <c r="P21" s="275"/>
+      <c r="Q21" s="267" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="275"/>
-      <c r="S21" s="275"/>
-      <c r="T21" s="276"/>
-      <c r="U21" s="292"/>
-      <c r="V21" s="293"/>
-      <c r="W21" s="293"/>
-      <c r="X21" s="293"/>
-      <c r="Y21" s="293"/>
-      <c r="Z21" s="293"/>
-      <c r="AA21" s="293"/>
-      <c r="AB21" s="293"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="293"/>
-      <c r="AE21" s="293"/>
-      <c r="AF21" s="293"/>
-      <c r="AG21" s="293"/>
-      <c r="AH21" s="293"/>
-      <c r="AI21" s="294"/>
+      <c r="R21" s="276"/>
+      <c r="S21" s="276"/>
+      <c r="T21" s="277"/>
+      <c r="U21" s="287"/>
+      <c r="V21" s="288"/>
+      <c r="W21" s="288"/>
+      <c r="X21" s="288"/>
+      <c r="Y21" s="288"/>
+      <c r="Z21" s="288"/>
+      <c r="AA21" s="288"/>
+      <c r="AB21" s="288"/>
+      <c r="AC21" s="288"/>
+      <c r="AD21" s="288"/>
+      <c r="AE21" s="288"/>
+      <c r="AF21" s="288"/>
+      <c r="AG21" s="288"/>
+      <c r="AH21" s="288"/>
+      <c r="AI21" s="289"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="295" t="s">
+      <c r="A22" s="290" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="296"/>
-      <c r="C22" s="296"/>
-      <c r="D22" s="297"/>
+      <c r="B22" s="282"/>
+      <c r="C22" s="282"/>
+      <c r="D22" s="283"/>
       <c r="E22" s="128"/>
       <c r="F22" s="129"/>
       <c r="G22" s="83"/>
@@ -10108,12 +10113,12 @@
       <c r="N22" s="83"/>
       <c r="O22" s="106"/>
       <c r="P22" s="83"/>
-      <c r="Q22" s="295" t="s">
+      <c r="Q22" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="296"/>
-      <c r="S22" s="296"/>
-      <c r="T22" s="297"/>
+      <c r="R22" s="282"/>
+      <c r="S22" s="282"/>
+      <c r="T22" s="283"/>
       <c r="U22" s="85"/>
       <c r="V22" s="86"/>
       <c r="W22" s="130"/>
@@ -10176,36 +10181,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="283" t="s">
+      <c r="A24" s="305" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="284"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="286" t="s">
+      <c r="B24" s="306"/>
+      <c r="C24" s="306"/>
+      <c r="D24" s="307"/>
+      <c r="E24" s="273" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="287"/>
-      <c r="K24" s="287"/>
-      <c r="L24" s="287"/>
-      <c r="M24" s="287"/>
-      <c r="N24" s="287"/>
-      <c r="O24" s="287"/>
-      <c r="P24" s="288"/>
-      <c r="Q24" s="298" t="s">
+      <c r="F24" s="274"/>
+      <c r="G24" s="274"/>
+      <c r="H24" s="274"/>
+      <c r="I24" s="274"/>
+      <c r="J24" s="274"/>
+      <c r="K24" s="274"/>
+      <c r="L24" s="274"/>
+      <c r="M24" s="274"/>
+      <c r="N24" s="274"/>
+      <c r="O24" s="274"/>
+      <c r="P24" s="275"/>
+      <c r="Q24" s="291" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="299"/>
-      <c r="S24" s="299"/>
-      <c r="T24" s="300"/>
-      <c r="U24" s="272"/>
-      <c r="V24" s="273"/>
-      <c r="W24" s="273"/>
-      <c r="X24" s="273"/>
+      <c r="R24" s="292"/>
+      <c r="S24" s="292"/>
+      <c r="T24" s="293"/>
+      <c r="U24" s="297"/>
+      <c r="V24" s="298"/>
+      <c r="W24" s="298"/>
+      <c r="X24" s="298"/>
       <c r="Y24" s="137" t="s">
         <v>69</v>
       </c>
@@ -10221,26 +10226,26 @@
       <c r="AI24" s="139"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="279" t="s">
+      <c r="A25" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="281"/>
+      <c r="B25" s="302"/>
+      <c r="C25" s="302"/>
+      <c r="D25" s="303"/>
       <c r="E25" s="128"/>
       <c r="F25" s="140"/>
       <c r="G25" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="270"/>
-      <c r="I25" s="271"/>
-      <c r="J25" s="271"/>
-      <c r="K25" s="271"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="271"/>
-      <c r="O25" s="271"/>
-      <c r="P25" s="271"/>
+      <c r="H25" s="295"/>
+      <c r="I25" s="296"/>
+      <c r="J25" s="296"/>
+      <c r="K25" s="296"/>
+      <c r="L25" s="296"/>
+      <c r="M25" s="296"/>
+      <c r="N25" s="296"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="296"/>
       <c r="Q25" s="83" t="s">
         <v>60</v>
       </c>
@@ -10249,15 +10254,15 @@
       <c r="T25" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="282"/>
-      <c r="V25" s="282"/>
-      <c r="W25" s="282"/>
-      <c r="X25" s="282"/>
-      <c r="Y25" s="282"/>
-      <c r="Z25" s="282"/>
-      <c r="AA25" s="282"/>
-      <c r="AB25" s="282"/>
-      <c r="AC25" s="282"/>
+      <c r="U25" s="304"/>
+      <c r="V25" s="304"/>
+      <c r="W25" s="304"/>
+      <c r="X25" s="304"/>
+      <c r="Y25" s="304"/>
+      <c r="Z25" s="304"/>
+      <c r="AA25" s="304"/>
+      <c r="AB25" s="304"/>
+      <c r="AC25" s="304"/>
       <c r="AD25" s="83" t="s">
         <v>60</v>
       </c>
@@ -10277,15 +10282,15 @@
       <c r="G26" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="278"/>
-      <c r="I26" s="278"/>
-      <c r="J26" s="278"/>
-      <c r="K26" s="278"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="278"/>
-      <c r="N26" s="278"/>
-      <c r="O26" s="278"/>
-      <c r="P26" s="278"/>
+      <c r="H26" s="300"/>
+      <c r="I26" s="300"/>
+      <c r="J26" s="300"/>
+      <c r="K26" s="300"/>
+      <c r="L26" s="300"/>
+      <c r="M26" s="300"/>
+      <c r="N26" s="300"/>
+      <c r="O26" s="300"/>
+      <c r="P26" s="300"/>
       <c r="Q26" s="103" t="s">
         <v>60</v>
       </c>
@@ -10293,15 +10298,15 @@
       <c r="T26" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="U26" s="278"/>
-      <c r="V26" s="278"/>
-      <c r="W26" s="278"/>
-      <c r="X26" s="278"/>
-      <c r="Y26" s="278"/>
-      <c r="Z26" s="278"/>
-      <c r="AA26" s="278"/>
-      <c r="AB26" s="278"/>
-      <c r="AC26" s="278"/>
+      <c r="U26" s="300"/>
+      <c r="V26" s="300"/>
+      <c r="W26" s="300"/>
+      <c r="X26" s="300"/>
+      <c r="Y26" s="300"/>
+      <c r="Z26" s="300"/>
+      <c r="AA26" s="300"/>
+      <c r="AB26" s="300"/>
+      <c r="AC26" s="300"/>
       <c r="AD26" s="103" t="s">
         <v>60</v>
       </c>
@@ -10317,15 +10322,15 @@
       <c r="G27" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="277"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="277"/>
-      <c r="K27" s="277"/>
-      <c r="L27" s="277"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="277"/>
-      <c r="O27" s="277"/>
-      <c r="P27" s="277"/>
+      <c r="H27" s="299"/>
+      <c r="I27" s="299"/>
+      <c r="J27" s="299"/>
+      <c r="K27" s="299"/>
+      <c r="L27" s="299"/>
+      <c r="M27" s="299"/>
+      <c r="N27" s="299"/>
+      <c r="O27" s="299"/>
+      <c r="P27" s="299"/>
       <c r="Q27" s="114" t="s">
         <v>60</v>
       </c>
@@ -10334,26 +10339,26 @@
       <c r="T27" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="277"/>
-      <c r="V27" s="277"/>
-      <c r="W27" s="277"/>
-      <c r="X27" s="277"/>
-      <c r="Y27" s="277"/>
-      <c r="Z27" s="277"/>
-      <c r="AA27" s="277"/>
-      <c r="AB27" s="277"/>
-      <c r="AC27" s="277"/>
-      <c r="AD27" s="277"/>
-      <c r="AE27" s="277"/>
-      <c r="AF27" s="277"/>
-      <c r="AG27" s="277"/>
-      <c r="AH27" s="277"/>
+      <c r="U27" s="299"/>
+      <c r="V27" s="299"/>
+      <c r="W27" s="299"/>
+      <c r="X27" s="299"/>
+      <c r="Y27" s="299"/>
+      <c r="Z27" s="299"/>
+      <c r="AA27" s="299"/>
+      <c r="AB27" s="299"/>
+      <c r="AC27" s="299"/>
+      <c r="AD27" s="299"/>
+      <c r="AE27" s="299"/>
+      <c r="AF27" s="299"/>
+      <c r="AG27" s="299"/>
+      <c r="AH27" s="299"/>
       <c r="AI27" s="116" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="267" t="s">
+      <c r="A28" s="294" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="268"/>
@@ -10438,21 +10443,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10467,23 +10474,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11026,163 +11031,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="255" t="str">
+      <c r="A1" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="204" t="str">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="258" t="str">
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="255" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design(JSON)</v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="255" t="str">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="256"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="252">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="254"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:36" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="255" t="str">
+      <c r="A2" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="204" t="str">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="255" t="str">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="256"/>
-      <c r="AC2" s="234" t="str">
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="236"/>
-      <c r="AG2" s="252">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="264">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="254"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:36" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="255" t="str">
+      <c r="A3" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="204" t="str">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="234" t="str">
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="252" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="254"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:36" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="67"/>
@@ -11252,461 +11257,461 @@
       <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="373" t="s">
+      <c r="A8" s="326" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="324"/>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="324"/>
-      <c r="I8" s="324"/>
-      <c r="J8" s="324"/>
-      <c r="K8" s="324"/>
-      <c r="L8" s="324"/>
-      <c r="M8" s="324"/>
-      <c r="N8" s="324"/>
-      <c r="O8" s="324"/>
-      <c r="P8" s="324"/>
-      <c r="Q8" s="324"/>
-      <c r="R8" s="324"/>
-      <c r="S8" s="324"/>
-      <c r="T8" s="324"/>
-      <c r="U8" s="324"/>
-      <c r="V8" s="324"/>
-      <c r="W8" s="324"/>
-      <c r="X8" s="324"/>
-      <c r="Y8" s="324"/>
-      <c r="Z8" s="324"/>
-      <c r="AA8" s="324"/>
-      <c r="AB8" s="374"/>
-      <c r="AC8" s="323" t="s">
+      <c r="B8" s="327"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="327"/>
+      <c r="G8" s="327"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="327"/>
+      <c r="J8" s="327"/>
+      <c r="K8" s="327"/>
+      <c r="L8" s="327"/>
+      <c r="M8" s="327"/>
+      <c r="N8" s="327"/>
+      <c r="O8" s="327"/>
+      <c r="P8" s="327"/>
+      <c r="Q8" s="327"/>
+      <c r="R8" s="327"/>
+      <c r="S8" s="327"/>
+      <c r="T8" s="327"/>
+      <c r="U8" s="327"/>
+      <c r="V8" s="327"/>
+      <c r="W8" s="327"/>
+      <c r="X8" s="327"/>
+      <c r="Y8" s="327"/>
+      <c r="Z8" s="327"/>
+      <c r="AA8" s="327"/>
+      <c r="AB8" s="328"/>
+      <c r="AC8" s="391" t="s">
         <v>36</v>
       </c>
-      <c r="AD8" s="324"/>
-      <c r="AE8" s="325"/>
-      <c r="AF8" s="320"/>
-      <c r="AG8" s="321"/>
-      <c r="AH8" s="321"/>
-      <c r="AI8" s="322"/>
+      <c r="AD8" s="327"/>
+      <c r="AE8" s="392"/>
+      <c r="AF8" s="388"/>
+      <c r="AG8" s="389"/>
+      <c r="AH8" s="389"/>
+      <c r="AI8" s="390"/>
     </row>
     <row r="9" spans="1:36" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="369" t="s">
+      <c r="B9" s="311" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="369" t="s">
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="370"/>
-      <c r="I9" s="372"/>
-      <c r="J9" s="369" t="s">
+      <c r="H9" s="312"/>
+      <c r="I9" s="313"/>
+      <c r="J9" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="370"/>
-      <c r="L9" s="370"/>
-      <c r="M9" s="370"/>
-      <c r="N9" s="370"/>
-      <c r="O9" s="370"/>
-      <c r="P9" s="372"/>
-      <c r="Q9" s="387" t="s">
+      <c r="K9" s="312"/>
+      <c r="L9" s="312"/>
+      <c r="M9" s="312"/>
+      <c r="N9" s="312"/>
+      <c r="O9" s="312"/>
+      <c r="P9" s="313"/>
+      <c r="Q9" s="316" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="389"/>
-      <c r="S9" s="387" t="s">
+      <c r="R9" s="318"/>
+      <c r="S9" s="316" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="388"/>
-      <c r="U9" s="389"/>
-      <c r="V9" s="369" t="s">
+      <c r="T9" s="317"/>
+      <c r="U9" s="318"/>
+      <c r="V9" s="311" t="s">
         <v>43</v>
       </c>
-      <c r="W9" s="370"/>
-      <c r="X9" s="370"/>
-      <c r="Y9" s="370"/>
-      <c r="Z9" s="370"/>
-      <c r="AA9" s="370"/>
-      <c r="AB9" s="371"/>
-      <c r="AC9" s="381" t="s">
+      <c r="W9" s="312"/>
+      <c r="X9" s="312"/>
+      <c r="Y9" s="312"/>
+      <c r="Z9" s="312"/>
+      <c r="AA9" s="312"/>
+      <c r="AB9" s="325"/>
+      <c r="AC9" s="337" t="s">
         <v>44</v>
       </c>
-      <c r="AD9" s="382"/>
-      <c r="AE9" s="382"/>
-      <c r="AF9" s="382"/>
-      <c r="AG9" s="382"/>
-      <c r="AH9" s="383" t="s">
+      <c r="AD9" s="338"/>
+      <c r="AE9" s="338"/>
+      <c r="AF9" s="338"/>
+      <c r="AG9" s="338"/>
+      <c r="AH9" s="339" t="s">
         <v>46</v>
       </c>
-      <c r="AI9" s="383"/>
+      <c r="AI9" s="339"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="79">
         <v>1</v>
       </c>
-      <c r="B10" s="333" t="s">
+      <c r="B10" s="375" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="334"/>
-      <c r="D10" s="334"/>
-      <c r="E10" s="334"/>
-      <c r="F10" s="335"/>
-      <c r="G10" s="378"/>
-      <c r="H10" s="379"/>
-      <c r="I10" s="380"/>
-      <c r="J10" s="390"/>
-      <c r="K10" s="391"/>
-      <c r="L10" s="391"/>
-      <c r="M10" s="391"/>
-      <c r="N10" s="391"/>
-      <c r="O10" s="391"/>
-      <c r="P10" s="392"/>
-      <c r="Q10" s="342"/>
-      <c r="R10" s="344"/>
-      <c r="S10" s="342"/>
-      <c r="T10" s="343"/>
-      <c r="U10" s="344"/>
-      <c r="V10" s="384"/>
-      <c r="W10" s="385"/>
-      <c r="X10" s="385"/>
-      <c r="Y10" s="385"/>
-      <c r="Z10" s="385"/>
-      <c r="AA10" s="385"/>
-      <c r="AB10" s="386"/>
-      <c r="AC10" s="366"/>
-      <c r="AD10" s="311"/>
-      <c r="AE10" s="312"/>
-      <c r="AF10" s="312"/>
-      <c r="AG10" s="313"/>
-      <c r="AH10" s="331"/>
-      <c r="AI10" s="332"/>
+      <c r="C10" s="376"/>
+      <c r="D10" s="376"/>
+      <c r="E10" s="376"/>
+      <c r="F10" s="377"/>
+      <c r="G10" s="334"/>
+      <c r="H10" s="335"/>
+      <c r="I10" s="336"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="321"/>
+      <c r="L10" s="321"/>
+      <c r="M10" s="321"/>
+      <c r="N10" s="321"/>
+      <c r="O10" s="321"/>
+      <c r="P10" s="322"/>
+      <c r="Q10" s="332"/>
+      <c r="R10" s="333"/>
+      <c r="S10" s="332"/>
+      <c r="T10" s="378"/>
+      <c r="U10" s="333"/>
+      <c r="V10" s="340"/>
+      <c r="W10" s="341"/>
+      <c r="X10" s="341"/>
+      <c r="Y10" s="341"/>
+      <c r="Z10" s="341"/>
+      <c r="AA10" s="341"/>
+      <c r="AB10" s="342"/>
+      <c r="AC10" s="370"/>
+      <c r="AD10" s="382"/>
+      <c r="AE10" s="383"/>
+      <c r="AF10" s="383"/>
+      <c r="AG10" s="384"/>
+      <c r="AH10" s="373"/>
+      <c r="AI10" s="374"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="80">
         <v>2</v>
       </c>
-      <c r="B11" s="336"/>
-      <c r="C11" s="337"/>
-      <c r="D11" s="337"/>
-      <c r="E11" s="337"/>
-      <c r="F11" s="338"/>
-      <c r="G11" s="375"/>
-      <c r="H11" s="376"/>
-      <c r="I11" s="377"/>
-      <c r="J11" s="336"/>
-      <c r="K11" s="337"/>
-      <c r="L11" s="337"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
-      <c r="P11" s="338"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="347"/>
-      <c r="S11" s="345"/>
-      <c r="T11" s="346"/>
-      <c r="U11" s="347"/>
-      <c r="V11" s="328"/>
-      <c r="W11" s="329"/>
-      <c r="X11" s="329"/>
-      <c r="Y11" s="329"/>
-      <c r="Z11" s="329"/>
-      <c r="AA11" s="329"/>
-      <c r="AB11" s="330"/>
-      <c r="AC11" s="367"/>
-      <c r="AD11" s="314"/>
-      <c r="AE11" s="315"/>
-      <c r="AF11" s="315"/>
-      <c r="AG11" s="316"/>
-      <c r="AH11" s="326"/>
-      <c r="AI11" s="327"/>
+      <c r="B11" s="308"/>
+      <c r="C11" s="309"/>
+      <c r="D11" s="309"/>
+      <c r="E11" s="309"/>
+      <c r="F11" s="310"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="330"/>
+      <c r="I11" s="331"/>
+      <c r="J11" s="308"/>
+      <c r="K11" s="309"/>
+      <c r="L11" s="309"/>
+      <c r="M11" s="309"/>
+      <c r="N11" s="309"/>
+      <c r="O11" s="309"/>
+      <c r="P11" s="310"/>
+      <c r="Q11" s="314"/>
+      <c r="R11" s="315"/>
+      <c r="S11" s="314"/>
+      <c r="T11" s="319"/>
+      <c r="U11" s="315"/>
+      <c r="V11" s="343"/>
+      <c r="W11" s="344"/>
+      <c r="X11" s="344"/>
+      <c r="Y11" s="344"/>
+      <c r="Z11" s="344"/>
+      <c r="AA11" s="344"/>
+      <c r="AB11" s="345"/>
+      <c r="AC11" s="371"/>
+      <c r="AD11" s="385"/>
+      <c r="AE11" s="386"/>
+      <c r="AF11" s="386"/>
+      <c r="AG11" s="387"/>
+      <c r="AH11" s="323"/>
+      <c r="AI11" s="324"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="80">
         <v>3</v>
       </c>
-      <c r="B12" s="336"/>
-      <c r="C12" s="337"/>
-      <c r="D12" s="337"/>
-      <c r="E12" s="337"/>
-      <c r="F12" s="338"/>
-      <c r="G12" s="375"/>
-      <c r="H12" s="376"/>
-      <c r="I12" s="377"/>
-      <c r="J12" s="336"/>
-      <c r="K12" s="337"/>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
-      <c r="O12" s="337"/>
-      <c r="P12" s="338"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="347"/>
-      <c r="S12" s="345"/>
-      <c r="T12" s="346"/>
-      <c r="U12" s="347"/>
-      <c r="V12" s="328"/>
-      <c r="W12" s="329"/>
-      <c r="X12" s="329"/>
-      <c r="Y12" s="329"/>
-      <c r="Z12" s="329"/>
-      <c r="AA12" s="329"/>
-      <c r="AB12" s="330"/>
-      <c r="AC12" s="367"/>
-      <c r="AD12" s="317"/>
-      <c r="AE12" s="318"/>
-      <c r="AF12" s="318"/>
-      <c r="AG12" s="319"/>
-      <c r="AH12" s="326"/>
-      <c r="AI12" s="327"/>
+      <c r="B12" s="308"/>
+      <c r="C12" s="309"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="310"/>
+      <c r="G12" s="329"/>
+      <c r="H12" s="330"/>
+      <c r="I12" s="331"/>
+      <c r="J12" s="308"/>
+      <c r="K12" s="309"/>
+      <c r="L12" s="309"/>
+      <c r="M12" s="309"/>
+      <c r="N12" s="309"/>
+      <c r="O12" s="309"/>
+      <c r="P12" s="310"/>
+      <c r="Q12" s="314"/>
+      <c r="R12" s="315"/>
+      <c r="S12" s="314"/>
+      <c r="T12" s="319"/>
+      <c r="U12" s="315"/>
+      <c r="V12" s="343"/>
+      <c r="W12" s="344"/>
+      <c r="X12" s="344"/>
+      <c r="Y12" s="344"/>
+      <c r="Z12" s="344"/>
+      <c r="AA12" s="344"/>
+      <c r="AB12" s="345"/>
+      <c r="AC12" s="371"/>
+      <c r="AD12" s="346"/>
+      <c r="AE12" s="347"/>
+      <c r="AF12" s="347"/>
+      <c r="AG12" s="348"/>
+      <c r="AH12" s="323"/>
+      <c r="AI12" s="324"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="80">
         <v>4</v>
       </c>
-      <c r="B13" s="336"/>
-      <c r="C13" s="337"/>
-      <c r="D13" s="337"/>
-      <c r="E13" s="337"/>
-      <c r="F13" s="338"/>
-      <c r="G13" s="375"/>
-      <c r="H13" s="376"/>
-      <c r="I13" s="377"/>
-      <c r="J13" s="336"/>
-      <c r="K13" s="337"/>
-      <c r="L13" s="337"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
-      <c r="O13" s="337"/>
-      <c r="P13" s="338"/>
-      <c r="Q13" s="345"/>
-      <c r="R13" s="347"/>
-      <c r="S13" s="345"/>
-      <c r="T13" s="346"/>
-      <c r="U13" s="347"/>
-      <c r="V13" s="328"/>
-      <c r="W13" s="329"/>
-      <c r="X13" s="329"/>
-      <c r="Y13" s="329"/>
-      <c r="Z13" s="329"/>
-      <c r="AA13" s="329"/>
-      <c r="AB13" s="330"/>
-      <c r="AC13" s="367"/>
-      <c r="AD13" s="317"/>
-      <c r="AE13" s="318"/>
-      <c r="AF13" s="318"/>
-      <c r="AG13" s="319"/>
-      <c r="AH13" s="326"/>
-      <c r="AI13" s="327"/>
+      <c r="B13" s="308"/>
+      <c r="C13" s="309"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="330"/>
+      <c r="I13" s="331"/>
+      <c r="J13" s="308"/>
+      <c r="K13" s="309"/>
+      <c r="L13" s="309"/>
+      <c r="M13" s="309"/>
+      <c r="N13" s="309"/>
+      <c r="O13" s="309"/>
+      <c r="P13" s="310"/>
+      <c r="Q13" s="314"/>
+      <c r="R13" s="315"/>
+      <c r="S13" s="314"/>
+      <c r="T13" s="319"/>
+      <c r="U13" s="315"/>
+      <c r="V13" s="343"/>
+      <c r="W13" s="344"/>
+      <c r="X13" s="344"/>
+      <c r="Y13" s="344"/>
+      <c r="Z13" s="344"/>
+      <c r="AA13" s="344"/>
+      <c r="AB13" s="345"/>
+      <c r="AC13" s="371"/>
+      <c r="AD13" s="346"/>
+      <c r="AE13" s="347"/>
+      <c r="AF13" s="347"/>
+      <c r="AG13" s="348"/>
+      <c r="AH13" s="323"/>
+      <c r="AI13" s="324"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="80">
         <v>5</v>
       </c>
-      <c r="B14" s="339"/>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="341"/>
-      <c r="G14" s="336"/>
-      <c r="H14" s="337"/>
-      <c r="I14" s="338"/>
-      <c r="J14" s="336"/>
-      <c r="K14" s="337"/>
-      <c r="L14" s="337"/>
-      <c r="M14" s="337"/>
-      <c r="N14" s="337"/>
-      <c r="O14" s="337"/>
-      <c r="P14" s="338"/>
-      <c r="Q14" s="345"/>
-      <c r="R14" s="347"/>
-      <c r="S14" s="345"/>
-      <c r="T14" s="346"/>
-      <c r="U14" s="347"/>
-      <c r="V14" s="328"/>
-      <c r="W14" s="329"/>
-      <c r="X14" s="329"/>
-      <c r="Y14" s="329"/>
-      <c r="Z14" s="329"/>
-      <c r="AA14" s="329"/>
-      <c r="AB14" s="330"/>
-      <c r="AC14" s="367"/>
-      <c r="AD14" s="317"/>
-      <c r="AE14" s="318"/>
-      <c r="AF14" s="318"/>
-      <c r="AG14" s="319"/>
-      <c r="AH14" s="326"/>
-      <c r="AI14" s="327"/>
+      <c r="B14" s="362"/>
+      <c r="C14" s="363"/>
+      <c r="D14" s="363"/>
+      <c r="E14" s="363"/>
+      <c r="F14" s="364"/>
+      <c r="G14" s="308"/>
+      <c r="H14" s="309"/>
+      <c r="I14" s="310"/>
+      <c r="J14" s="308"/>
+      <c r="K14" s="309"/>
+      <c r="L14" s="309"/>
+      <c r="M14" s="309"/>
+      <c r="N14" s="309"/>
+      <c r="O14" s="309"/>
+      <c r="P14" s="310"/>
+      <c r="Q14" s="314"/>
+      <c r="R14" s="315"/>
+      <c r="S14" s="314"/>
+      <c r="T14" s="319"/>
+      <c r="U14" s="315"/>
+      <c r="V14" s="343"/>
+      <c r="W14" s="344"/>
+      <c r="X14" s="344"/>
+      <c r="Y14" s="344"/>
+      <c r="Z14" s="344"/>
+      <c r="AA14" s="344"/>
+      <c r="AB14" s="345"/>
+      <c r="AC14" s="371"/>
+      <c r="AD14" s="346"/>
+      <c r="AE14" s="347"/>
+      <c r="AF14" s="347"/>
+      <c r="AG14" s="348"/>
+      <c r="AH14" s="323"/>
+      <c r="AI14" s="324"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="80">
         <v>6</v>
       </c>
-      <c r="B15" s="339"/>
-      <c r="C15" s="340"/>
-      <c r="D15" s="340"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="341"/>
-      <c r="G15" s="336"/>
-      <c r="H15" s="337"/>
-      <c r="I15" s="338"/>
-      <c r="J15" s="336"/>
-      <c r="K15" s="337"/>
-      <c r="L15" s="337"/>
-      <c r="M15" s="337"/>
-      <c r="N15" s="337"/>
-      <c r="O15" s="337"/>
-      <c r="P15" s="338"/>
-      <c r="Q15" s="345"/>
-      <c r="R15" s="347"/>
-      <c r="S15" s="345"/>
-      <c r="T15" s="346"/>
-      <c r="U15" s="347"/>
-      <c r="V15" s="328"/>
-      <c r="W15" s="329"/>
-      <c r="X15" s="329"/>
-      <c r="Y15" s="329"/>
-      <c r="Z15" s="329"/>
-      <c r="AA15" s="329"/>
-      <c r="AB15" s="330"/>
-      <c r="AC15" s="367"/>
-      <c r="AD15" s="317"/>
-      <c r="AE15" s="318"/>
-      <c r="AF15" s="318"/>
-      <c r="AG15" s="319"/>
-      <c r="AH15" s="326"/>
-      <c r="AI15" s="327"/>
+      <c r="B15" s="362"/>
+      <c r="C15" s="363"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="363"/>
+      <c r="F15" s="364"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="309"/>
+      <c r="I15" s="310"/>
+      <c r="J15" s="308"/>
+      <c r="K15" s="309"/>
+      <c r="L15" s="309"/>
+      <c r="M15" s="309"/>
+      <c r="N15" s="309"/>
+      <c r="O15" s="309"/>
+      <c r="P15" s="310"/>
+      <c r="Q15" s="314"/>
+      <c r="R15" s="315"/>
+      <c r="S15" s="314"/>
+      <c r="T15" s="319"/>
+      <c r="U15" s="315"/>
+      <c r="V15" s="343"/>
+      <c r="W15" s="344"/>
+      <c r="X15" s="344"/>
+      <c r="Y15" s="344"/>
+      <c r="Z15" s="344"/>
+      <c r="AA15" s="344"/>
+      <c r="AB15" s="345"/>
+      <c r="AC15" s="371"/>
+      <c r="AD15" s="346"/>
+      <c r="AE15" s="347"/>
+      <c r="AF15" s="347"/>
+      <c r="AG15" s="348"/>
+      <c r="AH15" s="323"/>
+      <c r="AI15" s="324"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81">
         <v>7</v>
       </c>
-      <c r="B16" s="339"/>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
-      <c r="F16" s="341"/>
-      <c r="G16" s="336"/>
-      <c r="H16" s="337"/>
-      <c r="I16" s="338"/>
-      <c r="J16" s="336"/>
-      <c r="K16" s="337"/>
-      <c r="L16" s="337"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="337"/>
-      <c r="O16" s="337"/>
-      <c r="P16" s="338"/>
-      <c r="Q16" s="345"/>
-      <c r="R16" s="347"/>
-      <c r="S16" s="345"/>
-      <c r="T16" s="346"/>
-      <c r="U16" s="347"/>
-      <c r="V16" s="328"/>
-      <c r="W16" s="329"/>
-      <c r="X16" s="329"/>
-      <c r="Y16" s="329"/>
-      <c r="Z16" s="329"/>
-      <c r="AA16" s="329"/>
-      <c r="AB16" s="330"/>
-      <c r="AC16" s="367"/>
-      <c r="AD16" s="317"/>
-      <c r="AE16" s="318"/>
-      <c r="AF16" s="318"/>
-      <c r="AG16" s="319"/>
-      <c r="AH16" s="326"/>
-      <c r="AI16" s="327"/>
+      <c r="B16" s="362"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="363"/>
+      <c r="F16" s="364"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="309"/>
+      <c r="I16" s="310"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="309"/>
+      <c r="L16" s="309"/>
+      <c r="M16" s="309"/>
+      <c r="N16" s="309"/>
+      <c r="O16" s="309"/>
+      <c r="P16" s="310"/>
+      <c r="Q16" s="314"/>
+      <c r="R16" s="315"/>
+      <c r="S16" s="314"/>
+      <c r="T16" s="319"/>
+      <c r="U16" s="315"/>
+      <c r="V16" s="343"/>
+      <c r="W16" s="344"/>
+      <c r="X16" s="344"/>
+      <c r="Y16" s="344"/>
+      <c r="Z16" s="344"/>
+      <c r="AA16" s="344"/>
+      <c r="AB16" s="345"/>
+      <c r="AC16" s="371"/>
+      <c r="AD16" s="346"/>
+      <c r="AE16" s="347"/>
+      <c r="AF16" s="347"/>
+      <c r="AG16" s="348"/>
+      <c r="AH16" s="323"/>
+      <c r="AI16" s="324"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="81">
         <v>8</v>
       </c>
-      <c r="B17" s="339"/>
-      <c r="C17" s="340"/>
-      <c r="D17" s="340"/>
-      <c r="E17" s="340"/>
-      <c r="F17" s="341"/>
-      <c r="G17" s="336"/>
-      <c r="H17" s="337"/>
-      <c r="I17" s="338"/>
-      <c r="J17" s="336"/>
-      <c r="K17" s="337"/>
-      <c r="L17" s="337"/>
-      <c r="M17" s="337"/>
-      <c r="N17" s="337"/>
-      <c r="O17" s="337"/>
-      <c r="P17" s="338"/>
-      <c r="Q17" s="345"/>
-      <c r="R17" s="347"/>
-      <c r="S17" s="345"/>
-      <c r="T17" s="346"/>
-      <c r="U17" s="347"/>
-      <c r="V17" s="328"/>
-      <c r="W17" s="329"/>
-      <c r="X17" s="329"/>
-      <c r="Y17" s="329"/>
-      <c r="Z17" s="329"/>
-      <c r="AA17" s="329"/>
-      <c r="AB17" s="330"/>
-      <c r="AC17" s="367"/>
-      <c r="AD17" s="317"/>
-      <c r="AE17" s="318"/>
-      <c r="AF17" s="318"/>
-      <c r="AG17" s="319"/>
-      <c r="AH17" s="326"/>
-      <c r="AI17" s="327"/>
+      <c r="B17" s="362"/>
+      <c r="C17" s="363"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="364"/>
+      <c r="G17" s="308"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="310"/>
+      <c r="J17" s="308"/>
+      <c r="K17" s="309"/>
+      <c r="L17" s="309"/>
+      <c r="M17" s="309"/>
+      <c r="N17" s="309"/>
+      <c r="O17" s="309"/>
+      <c r="P17" s="310"/>
+      <c r="Q17" s="314"/>
+      <c r="R17" s="315"/>
+      <c r="S17" s="314"/>
+      <c r="T17" s="319"/>
+      <c r="U17" s="315"/>
+      <c r="V17" s="343"/>
+      <c r="W17" s="344"/>
+      <c r="X17" s="344"/>
+      <c r="Y17" s="344"/>
+      <c r="Z17" s="344"/>
+      <c r="AA17" s="344"/>
+      <c r="AB17" s="345"/>
+      <c r="AC17" s="371"/>
+      <c r="AD17" s="346"/>
+      <c r="AE17" s="347"/>
+      <c r="AF17" s="347"/>
+      <c r="AG17" s="348"/>
+      <c r="AH17" s="323"/>
+      <c r="AI17" s="324"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="82">
         <v>9</v>
       </c>
-      <c r="B18" s="361"/>
-      <c r="C18" s="362"/>
-      <c r="D18" s="362"/>
-      <c r="E18" s="362"/>
-      <c r="F18" s="363"/>
-      <c r="G18" s="358"/>
-      <c r="H18" s="359"/>
-      <c r="I18" s="360"/>
-      <c r="J18" s="358"/>
-      <c r="K18" s="359"/>
-      <c r="L18" s="359"/>
-      <c r="M18" s="359"/>
-      <c r="N18" s="359"/>
-      <c r="O18" s="359"/>
-      <c r="P18" s="360"/>
-      <c r="Q18" s="355"/>
-      <c r="R18" s="357"/>
-      <c r="S18" s="355"/>
-      <c r="T18" s="356"/>
-      <c r="U18" s="357"/>
-      <c r="V18" s="351"/>
-      <c r="W18" s="352"/>
-      <c r="X18" s="352"/>
-      <c r="Y18" s="352"/>
-      <c r="Z18" s="352"/>
-      <c r="AA18" s="352"/>
-      <c r="AB18" s="353"/>
-      <c r="AC18" s="368"/>
-      <c r="AD18" s="308"/>
-      <c r="AE18" s="309"/>
-      <c r="AF18" s="309"/>
-      <c r="AG18" s="310"/>
-      <c r="AH18" s="364"/>
-      <c r="AI18" s="365"/>
+      <c r="B18" s="365"/>
+      <c r="C18" s="366"/>
+      <c r="D18" s="366"/>
+      <c r="E18" s="366"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="359"/>
+      <c r="H18" s="360"/>
+      <c r="I18" s="361"/>
+      <c r="J18" s="359"/>
+      <c r="K18" s="360"/>
+      <c r="L18" s="360"/>
+      <c r="M18" s="360"/>
+      <c r="N18" s="360"/>
+      <c r="O18" s="360"/>
+      <c r="P18" s="361"/>
+      <c r="Q18" s="356"/>
+      <c r="R18" s="358"/>
+      <c r="S18" s="356"/>
+      <c r="T18" s="357"/>
+      <c r="U18" s="358"/>
+      <c r="V18" s="352"/>
+      <c r="W18" s="353"/>
+      <c r="X18" s="353"/>
+      <c r="Y18" s="353"/>
+      <c r="Z18" s="353"/>
+      <c r="AA18" s="353"/>
+      <c r="AB18" s="354"/>
+      <c r="AC18" s="372"/>
+      <c r="AD18" s="379"/>
+      <c r="AE18" s="380"/>
+      <c r="AF18" s="380"/>
+      <c r="AG18" s="381"/>
+      <c r="AH18" s="368"/>
+      <c r="AI18" s="369"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="354"/>
-      <c r="B19" s="282"/>
-      <c r="C19" s="282"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="282"/>
+      <c r="A19" s="355"/>
+      <c r="B19" s="304"/>
+      <c r="C19" s="304"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304"/>
       <c r="G19" s="83"/>
       <c r="H19" s="83"/>
       <c r="I19" s="83"/>
@@ -11730,22 +11735,22 @@
       <c r="AA19" s="83"/>
       <c r="AB19" s="83"/>
       <c r="AC19" s="84"/>
-      <c r="AD19" s="350"/>
-      <c r="AE19" s="350"/>
-      <c r="AF19" s="350"/>
-      <c r="AG19" s="350"/>
-      <c r="AH19" s="350"/>
+      <c r="AD19" s="351"/>
+      <c r="AE19" s="351"/>
+      <c r="AF19" s="351"/>
+      <c r="AG19" s="351"/>
+      <c r="AH19" s="351"/>
       <c r="AI19" s="29"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="348" t="s">
+      <c r="A20" s="349" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="349"/>
-      <c r="C20" s="349"/>
-      <c r="D20" s="349"/>
-      <c r="E20" s="349"/>
-      <c r="F20" s="349"/>
+      <c r="B20" s="350"/>
+      <c r="C20" s="350"/>
+      <c r="D20" s="350"/>
+      <c r="E20" s="350"/>
+      <c r="F20" s="350"/>
       <c r="G20" s="85"/>
       <c r="H20" s="86"/>
       <c r="I20" s="86"/>
@@ -12255,20 +12260,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -12293,72 +12350,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -12386,7 +12391,7 @@
   <dimension ref="A1:CG32"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12399,163 +12404,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="255" t="str">
+      <c r="A1" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="204" t="str">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="258" t="str">
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="255" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design(JSON)</v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="255" t="str">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="256"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="252">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="254"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:85" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="255" t="str">
+      <c r="A2" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="204" t="str">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="255" t="str">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="256"/>
-      <c r="AC2" s="234" t="str">
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="236"/>
-      <c r="AG2" s="252">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="264">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="254"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:85" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="255" t="str">
+      <c r="A3" s="252" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="204" t="str">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="234" t="str">
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="252" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="254"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12606,60 +12611,60 @@
       <c r="A8" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="401" t="s">
+      <c r="B8" s="409" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="402"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="402"/>
-      <c r="F8" s="403"/>
-      <c r="G8" s="401" t="s">
+      <c r="C8" s="410"/>
+      <c r="D8" s="410"/>
+      <c r="E8" s="410"/>
+      <c r="F8" s="411"/>
+      <c r="G8" s="409" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="402"/>
-      <c r="I8" s="402"/>
-      <c r="J8" s="402"/>
-      <c r="K8" s="403"/>
-      <c r="L8" s="401" t="s">
+      <c r="H8" s="410"/>
+      <c r="I8" s="410"/>
+      <c r="J8" s="410"/>
+      <c r="K8" s="411"/>
+      <c r="L8" s="409" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="402"/>
-      <c r="N8" s="402"/>
-      <c r="O8" s="402"/>
-      <c r="P8" s="403"/>
+      <c r="M8" s="410"/>
+      <c r="N8" s="410"/>
+      <c r="O8" s="410"/>
+      <c r="P8" s="411"/>
       <c r="Q8" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="411" t="s">
+      <c r="R8" s="406" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="411"/>
-      <c r="T8" s="411"/>
-      <c r="U8" s="411"/>
-      <c r="V8" s="412" t="s">
+      <c r="S8" s="406"/>
+      <c r="T8" s="406"/>
+      <c r="U8" s="406"/>
+      <c r="V8" s="407" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="413"/>
-      <c r="X8" s="412" t="s">
+      <c r="W8" s="408"/>
+      <c r="X8" s="407" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" s="413"/>
-      <c r="Z8" s="401" t="s">
+      <c r="Y8" s="408"/>
+      <c r="Z8" s="409" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="402"/>
-      <c r="AB8" s="403"/>
-      <c r="AC8" s="401" t="s">
+      <c r="AA8" s="410"/>
+      <c r="AB8" s="411"/>
+      <c r="AC8" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="402"/>
-      <c r="AE8" s="402"/>
-      <c r="AF8" s="402"/>
-      <c r="AG8" s="402"/>
-      <c r="AH8" s="402"/>
-      <c r="AI8" s="402"/>
-      <c r="AJ8" s="402"/>
-      <c r="AK8" s="403"/>
+      <c r="AD8" s="410"/>
+      <c r="AE8" s="410"/>
+      <c r="AF8" s="410"/>
+      <c r="AG8" s="410"/>
+      <c r="AH8" s="410"/>
+      <c r="AI8" s="410"/>
+      <c r="AJ8" s="410"/>
+      <c r="AK8" s="411"/>
       <c r="AL8" s="169"/>
       <c r="AM8" s="169"/>
       <c r="AN8" s="169"/>
@@ -12708,48 +12713,48 @@
       <c r="A9" s="30">
         <v>1</v>
       </c>
-      <c r="B9" s="396" t="s">
+      <c r="B9" s="393" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="397"/>
-      <c r="D9" s="397"/>
-      <c r="E9" s="397"/>
-      <c r="F9" s="398"/>
-      <c r="G9" s="393" t="s">
+      <c r="C9" s="394"/>
+      <c r="D9" s="394"/>
+      <c r="E9" s="394"/>
+      <c r="F9" s="395"/>
+      <c r="G9" s="396" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="394"/>
-      <c r="I9" s="394"/>
-      <c r="J9" s="394"/>
-      <c r="K9" s="395"/>
-      <c r="L9" s="396"/>
-      <c r="M9" s="397"/>
-      <c r="N9" s="397"/>
-      <c r="O9" s="397"/>
-      <c r="P9" s="398"/>
+      <c r="H9" s="397"/>
+      <c r="I9" s="397"/>
+      <c r="J9" s="397"/>
+      <c r="K9" s="398"/>
+      <c r="L9" s="393"/>
+      <c r="M9" s="394"/>
+      <c r="N9" s="394"/>
+      <c r="O9" s="394"/>
+      <c r="P9" s="395"/>
       <c r="Q9" s="31"/>
-      <c r="R9" s="396"/>
-      <c r="S9" s="397"/>
-      <c r="T9" s="397"/>
-      <c r="U9" s="398"/>
+      <c r="R9" s="393"/>
+      <c r="S9" s="394"/>
+      <c r="T9" s="394"/>
+      <c r="U9" s="395"/>
       <c r="V9" s="399" t="s">
         <v>87</v>
       </c>
       <c r="W9" s="400"/>
-      <c r="X9" s="404"/>
-      <c r="Y9" s="405"/>
-      <c r="Z9" s="396"/>
-      <c r="AA9" s="397"/>
-      <c r="AB9" s="398"/>
-      <c r="AC9" s="396"/>
-      <c r="AD9" s="397"/>
-      <c r="AE9" s="397"/>
-      <c r="AF9" s="397"/>
-      <c r="AG9" s="397"/>
-      <c r="AH9" s="397"/>
-      <c r="AI9" s="397"/>
-      <c r="AJ9" s="397"/>
-      <c r="AK9" s="398"/>
+      <c r="X9" s="412"/>
+      <c r="Y9" s="413"/>
+      <c r="Z9" s="393"/>
+      <c r="AA9" s="394"/>
+      <c r="AB9" s="395"/>
+      <c r="AC9" s="393"/>
+      <c r="AD9" s="394"/>
+      <c r="AE9" s="394"/>
+      <c r="AF9" s="394"/>
+      <c r="AG9" s="394"/>
+      <c r="AH9" s="394"/>
+      <c r="AI9" s="394"/>
+      <c r="AJ9" s="394"/>
+      <c r="AK9" s="395"/>
       <c r="AX9" s="29"/>
       <c r="AY9" s="29"/>
       <c r="AZ9" s="29"/>
@@ -12786,54 +12791,54 @@
       <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="396" t="s">
+      <c r="B10" s="393" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="397"/>
-      <c r="D10" s="397"/>
-      <c r="E10" s="397"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="393" t="s">
+      <c r="C10" s="394"/>
+      <c r="D10" s="394"/>
+      <c r="E10" s="394"/>
+      <c r="F10" s="395"/>
+      <c r="G10" s="396" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="394"/>
-      <c r="I10" s="394"/>
-      <c r="J10" s="394"/>
-      <c r="K10" s="395"/>
-      <c r="L10" s="396" t="s">
+      <c r="H10" s="397"/>
+      <c r="I10" s="397"/>
+      <c r="J10" s="397"/>
+      <c r="K10" s="398"/>
+      <c r="L10" s="393" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="397"/>
-      <c r="N10" s="397"/>
-      <c r="O10" s="397"/>
-      <c r="P10" s="398"/>
+      <c r="M10" s="394"/>
+      <c r="N10" s="394"/>
+      <c r="O10" s="394"/>
+      <c r="P10" s="395"/>
       <c r="Q10" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="396" t="s">
+      <c r="R10" s="393" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="397"/>
-      <c r="T10" s="397"/>
-      <c r="U10" s="398"/>
+      <c r="S10" s="394"/>
+      <c r="T10" s="394"/>
+      <c r="U10" s="395"/>
       <c r="V10" s="399">
         <v>1</v>
       </c>
       <c r="W10" s="400"/>
-      <c r="X10" s="404"/>
-      <c r="Y10" s="405"/>
-      <c r="Z10" s="396"/>
-      <c r="AA10" s="397"/>
-      <c r="AB10" s="398"/>
-      <c r="AC10" s="396"/>
-      <c r="AD10" s="397"/>
-      <c r="AE10" s="397"/>
-      <c r="AF10" s="397"/>
-      <c r="AG10" s="397"/>
-      <c r="AH10" s="397"/>
-      <c r="AI10" s="397"/>
-      <c r="AJ10" s="397"/>
-      <c r="AK10" s="398"/>
+      <c r="X10" s="412"/>
+      <c r="Y10" s="413"/>
+      <c r="Z10" s="393"/>
+      <c r="AA10" s="394"/>
+      <c r="AB10" s="395"/>
+      <c r="AC10" s="393"/>
+      <c r="AD10" s="394"/>
+      <c r="AE10" s="394"/>
+      <c r="AF10" s="394"/>
+      <c r="AG10" s="394"/>
+      <c r="AH10" s="394"/>
+      <c r="AI10" s="394"/>
+      <c r="AJ10" s="394"/>
+      <c r="AK10" s="395"/>
       <c r="AX10" s="29"/>
       <c r="AY10" s="29"/>
       <c r="AZ10" s="29"/>
@@ -12870,54 +12875,54 @@
       <c r="A11" s="30">
         <v>3</v>
       </c>
-      <c r="B11" s="396" t="s">
+      <c r="B11" s="393" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="397"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="397"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="393" t="s">
+      <c r="C11" s="394"/>
+      <c r="D11" s="394"/>
+      <c r="E11" s="394"/>
+      <c r="F11" s="395"/>
+      <c r="G11" s="396" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="394"/>
-      <c r="I11" s="394"/>
-      <c r="J11" s="394"/>
-      <c r="K11" s="395"/>
-      <c r="L11" s="396" t="s">
+      <c r="H11" s="397"/>
+      <c r="I11" s="397"/>
+      <c r="J11" s="397"/>
+      <c r="K11" s="398"/>
+      <c r="L11" s="393" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="397"/>
-      <c r="N11" s="397"/>
-      <c r="O11" s="397"/>
-      <c r="P11" s="398"/>
+      <c r="M11" s="394"/>
+      <c r="N11" s="394"/>
+      <c r="O11" s="394"/>
+      <c r="P11" s="395"/>
       <c r="Q11" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="396" t="s">
+      <c r="R11" s="393" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="397"/>
-      <c r="T11" s="397"/>
-      <c r="U11" s="398"/>
+      <c r="S11" s="394"/>
+      <c r="T11" s="394"/>
+      <c r="U11" s="395"/>
       <c r="V11" s="399">
         <v>1</v>
       </c>
       <c r="W11" s="400"/>
-      <c r="X11" s="396"/>
-      <c r="Y11" s="398"/>
-      <c r="Z11" s="396"/>
-      <c r="AA11" s="397"/>
-      <c r="AB11" s="398"/>
-      <c r="AC11" s="396"/>
-      <c r="AD11" s="397"/>
-      <c r="AE11" s="397"/>
-      <c r="AF11" s="397"/>
-      <c r="AG11" s="397"/>
-      <c r="AH11" s="397"/>
-      <c r="AI11" s="397"/>
-      <c r="AJ11" s="397"/>
-      <c r="AK11" s="398"/>
+      <c r="X11" s="393"/>
+      <c r="Y11" s="395"/>
+      <c r="Z11" s="393"/>
+      <c r="AA11" s="394"/>
+      <c r="AB11" s="395"/>
+      <c r="AC11" s="393"/>
+      <c r="AD11" s="394"/>
+      <c r="AE11" s="394"/>
+      <c r="AF11" s="394"/>
+      <c r="AG11" s="394"/>
+      <c r="AH11" s="394"/>
+      <c r="AI11" s="394"/>
+      <c r="AJ11" s="394"/>
+      <c r="AK11" s="395"/>
       <c r="AX11" s="29"/>
       <c r="AY11" s="29"/>
       <c r="AZ11" s="29"/>
@@ -12954,36 +12959,36 @@
       <c r="A12" s="30">
         <v>4</v>
       </c>
-      <c r="B12" s="396" t="s">
+      <c r="B12" s="393" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="397"/>
-      <c r="D12" s="397"/>
-      <c r="E12" s="397"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="393" t="s">
+      <c r="C12" s="394"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="394"/>
+      <c r="F12" s="395"/>
+      <c r="G12" s="396" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="394"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="394"/>
-      <c r="K12" s="395"/>
-      <c r="L12" s="396" t="s">
+      <c r="H12" s="397"/>
+      <c r="I12" s="397"/>
+      <c r="J12" s="397"/>
+      <c r="K12" s="398"/>
+      <c r="L12" s="393" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="397"/>
-      <c r="N12" s="397"/>
-      <c r="O12" s="397"/>
-      <c r="P12" s="398"/>
+      <c r="M12" s="394"/>
+      <c r="N12" s="394"/>
+      <c r="O12" s="394"/>
+      <c r="P12" s="395"/>
       <c r="Q12" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="R12" s="396" t="s">
+      <c r="R12" s="393" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="397"/>
-      <c r="T12" s="397"/>
-      <c r="U12" s="398"/>
+      <c r="S12" s="394"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="395"/>
       <c r="V12" s="399">
         <v>1</v>
       </c>
@@ -13036,26 +13041,26 @@
     </row>
     <row r="13" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="396"/>
-      <c r="C13" s="397"/>
-      <c r="D13" s="397"/>
-      <c r="E13" s="397"/>
-      <c r="F13" s="398"/>
-      <c r="G13" s="396"/>
-      <c r="H13" s="397"/>
-      <c r="I13" s="397"/>
-      <c r="J13" s="397"/>
-      <c r="K13" s="398"/>
-      <c r="L13" s="396"/>
-      <c r="M13" s="397"/>
-      <c r="N13" s="397"/>
-      <c r="O13" s="397"/>
-      <c r="P13" s="398"/>
+      <c r="B13" s="393"/>
+      <c r="C13" s="394"/>
+      <c r="D13" s="394"/>
+      <c r="E13" s="394"/>
+      <c r="F13" s="395"/>
+      <c r="G13" s="393"/>
+      <c r="H13" s="394"/>
+      <c r="I13" s="394"/>
+      <c r="J13" s="394"/>
+      <c r="K13" s="395"/>
+      <c r="L13" s="393"/>
+      <c r="M13" s="394"/>
+      <c r="N13" s="394"/>
+      <c r="O13" s="394"/>
+      <c r="P13" s="395"/>
       <c r="Q13" s="31"/>
-      <c r="R13" s="396"/>
-      <c r="S13" s="397"/>
-      <c r="T13" s="397"/>
-      <c r="U13" s="398"/>
+      <c r="R13" s="393"/>
+      <c r="S13" s="394"/>
+      <c r="T13" s="394"/>
+      <c r="U13" s="395"/>
       <c r="V13" s="399"/>
       <c r="W13" s="400"/>
       <c r="X13" s="32"/>
@@ -13180,47 +13185,47 @@
       <c r="CG15" s="41"/>
     </row>
     <row r="16" spans="1:85" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="406" t="s">
+      <c r="A16" s="401" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="407"/>
-      <c r="C16" s="407"/>
-      <c r="D16" s="407"/>
-      <c r="E16" s="407"/>
-      <c r="F16" s="407"/>
-      <c r="G16" s="407"/>
-      <c r="H16" s="407"/>
-      <c r="I16" s="407"/>
-      <c r="J16" s="407"/>
-      <c r="K16" s="407"/>
-      <c r="L16" s="407"/>
-      <c r="M16" s="407"/>
-      <c r="N16" s="407"/>
-      <c r="O16" s="407"/>
-      <c r="P16" s="407"/>
-      <c r="Q16" s="407"/>
-      <c r="R16" s="407"/>
-      <c r="S16" s="407"/>
-      <c r="T16" s="407"/>
-      <c r="U16" s="407"/>
-      <c r="V16" s="407"/>
-      <c r="W16" s="407"/>
-      <c r="X16" s="407"/>
-      <c r="Y16" s="408" t="s">
+      <c r="B16" s="402"/>
+      <c r="C16" s="402"/>
+      <c r="D16" s="402"/>
+      <c r="E16" s="402"/>
+      <c r="F16" s="402"/>
+      <c r="G16" s="402"/>
+      <c r="H16" s="402"/>
+      <c r="I16" s="402"/>
+      <c r="J16" s="402"/>
+      <c r="K16" s="402"/>
+      <c r="L16" s="402"/>
+      <c r="M16" s="402"/>
+      <c r="N16" s="402"/>
+      <c r="O16" s="402"/>
+      <c r="P16" s="402"/>
+      <c r="Q16" s="402"/>
+      <c r="R16" s="402"/>
+      <c r="S16" s="402"/>
+      <c r="T16" s="402"/>
+      <c r="U16" s="402"/>
+      <c r="V16" s="402"/>
+      <c r="W16" s="402"/>
+      <c r="X16" s="402"/>
+      <c r="Y16" s="403" t="s">
         <v>79</v>
       </c>
-      <c r="Z16" s="409"/>
-      <c r="AA16" s="409"/>
-      <c r="AB16" s="409"/>
-      <c r="AC16" s="409"/>
-      <c r="AD16" s="409"/>
-      <c r="AE16" s="409"/>
-      <c r="AF16" s="409"/>
-      <c r="AG16" s="409"/>
-      <c r="AH16" s="409"/>
-      <c r="AI16" s="409"/>
-      <c r="AJ16" s="409"/>
-      <c r="AK16" s="410"/>
+      <c r="Z16" s="404"/>
+      <c r="AA16" s="404"/>
+      <c r="AB16" s="404"/>
+      <c r="AC16" s="404"/>
+      <c r="AD16" s="404"/>
+      <c r="AE16" s="404"/>
+      <c r="AF16" s="404"/>
+      <c r="AG16" s="404"/>
+      <c r="AH16" s="404"/>
+      <c r="AI16" s="404"/>
+      <c r="AJ16" s="404"/>
+      <c r="AK16" s="405"/>
     </row>
     <row r="17" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
@@ -13838,11 +13843,46 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="AC11:AK11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A16:X16"/>
     <mergeCell ref="Y16:AK16"/>
     <mergeCell ref="R8:U8"/>
@@ -13859,46 +13899,11 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="AC11:AK11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -13921,9 +13926,7 @@
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
